--- a/public/images/demo_file/seasonalityTrend.xlsx
+++ b/public/images/demo_file/seasonalityTrend.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frame\SputnikPro\version2_2__3_12\public\images\demo_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14035A30-1F9D-4A77-BAFC-F1267B3C64DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767690B2-1E93-44A6-A825-7002CAAF1BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,25 +50,25 @@
     <t>Значение</t>
   </si>
   <si>
-    <t>тип_01</t>
+    <t>категория_01</t>
   </si>
   <si>
-    <t>тип_02</t>
+    <t>категория_02</t>
   </si>
   <si>
-    <t>тип_03</t>
+    <t>категория_03</t>
   </si>
   <si>
-    <t>тип_04</t>
+    <t>категория_04</t>
   </si>
   <si>
-    <t>тип_05</t>
+    <t>категория_05</t>
   </si>
   <si>
-    <t>тип_06</t>
+    <t>категория_06</t>
   </si>
   <si>
-    <t>тип_07</t>
+    <t>категория_07</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
   <dimension ref="A1:C365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/public/images/demo_file/seasonalityTrend.xlsx
+++ b/public/images/demo_file/seasonalityTrend.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frame\SputnikPro\version2_2__3_12\public\images\demo_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767690B2-1E93-44A6-A825-7002CAAF1BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B10560-752B-4E52-97B2-6890EAA9D29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,25 +50,25 @@
     <t>Значение</t>
   </si>
   <si>
-    <t>категория_01</t>
+    <t>Живое пиво</t>
   </si>
   <si>
-    <t>категория_02</t>
+    <t>Безалкогольное пиво</t>
   </si>
   <si>
-    <t>категория_03</t>
+    <t>Темное пиво</t>
   </si>
   <si>
-    <t>категория_04</t>
+    <t>Лагер</t>
   </si>
   <si>
-    <t>категория_05</t>
+    <t>Напиток на основе пива</t>
   </si>
   <si>
-    <t>категория_06</t>
+    <t>Пшеничное пиво</t>
   </si>
   <si>
-    <t>категория_07</t>
+    <t>Энергетик</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
   <dimension ref="A1:C365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -417,7 +417,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.91221573592573102</v>
+        <v>1.0322157359257311</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.86471018599745197</v>
+        <v>0.88471018599745199</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -439,7 +439,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1.1479695369212</v>
+        <v>1.2979695369211999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -450,7 +450,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.86266605308674804</v>
+        <v>1.082666053086748</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -461,7 +461,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.50089708714802195</v>
+        <v>0.87089708714802194</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -912,7 +912,7 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <v>0.67782851725099103</v>
+        <v>0.87782851725099098</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -923,7 +923,7 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>0.63592130233055599</v>
+        <v>0.83592130233055606</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -934,7 +934,7 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>0.61765947407081601</v>
+        <v>0.857659474070816</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -945,7 +945,7 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <v>0.59568758194210303</v>
+        <v>0.80568758194210299</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -956,7 +956,7 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <v>0.66888771797503899</v>
+        <v>0.78888771797503909</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -967,7 +967,7 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <v>0.65927367375172996</v>
+        <v>0.80927367375172998</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -978,7 +978,7 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <v>0.71642202816035105</v>
+        <v>0.91642202816035101</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>0.86706317005459899</v>
+        <v>0.98706317005459898</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="C55">
-        <v>0.72995021079589895</v>
+        <v>0.74995021079589885</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -1011,7 +1011,7 @@
         <v>3</v>
       </c>
       <c r="C56">
-        <v>0.77867656798868001</v>
+        <v>0.92867656798867992</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -1022,7 +1022,7 @@
         <v>4</v>
       </c>
       <c r="C57">
-        <v>0.77081249180501599</v>
+        <v>0.99081249180501596</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -1033,7 +1033,7 @@
         <v>5</v>
       </c>
       <c r="C58">
-        <v>0.80107614169593799</v>
+        <v>1.1710761416959381</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -1484,7 +1484,7 @@
         <v>46</v>
       </c>
       <c r="C99">
-        <v>0.79814047403511501</v>
+        <v>0.99814047403511497</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
@@ -1495,7 +1495,7 @@
         <v>47</v>
       </c>
       <c r="C100">
-        <v>0.77380008266636602</v>
+        <v>0.97380008266636597</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
@@ -1506,7 +1506,7 @@
         <v>48</v>
       </c>
       <c r="C101">
-        <v>0.74989313115413803</v>
+        <v>0.98989313115413802</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -1517,7 +1517,7 @@
         <v>49</v>
       </c>
       <c r="C102">
-        <v>0.71171442150274999</v>
+        <v>0.92171442150274996</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
@@ -1528,7 +1528,7 @@
         <v>50</v>
       </c>
       <c r="C103">
-        <v>0.705080028805118</v>
+        <v>0.8250800288051181</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
@@ -1539,7 +1539,7 @@
         <v>51</v>
       </c>
       <c r="C104">
-        <v>0.71035042953821703</v>
+        <v>0.86035042953821705</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -1550,7 +1550,7 @@
         <v>52</v>
       </c>
       <c r="C105">
-        <v>0.93844249119310497</v>
+        <v>1.138442491193105</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
@@ -1561,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>0.67706317005459904</v>
+        <v>0.79706317005459904</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -1572,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="C107">
-        <v>0.85995021079589895</v>
+        <v>0.87995021079589897</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
@@ -1583,7 +1583,7 @@
         <v>3</v>
       </c>
       <c r="C108">
-        <v>0.57867656798867995</v>
+        <v>0.72867656798867997</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
@@ -1594,7 +1594,7 @@
         <v>4</v>
       </c>
       <c r="C109">
-        <v>0.59081249180501605</v>
+        <v>0.81081249180501602</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
@@ -1605,7 +1605,7 @@
         <v>5</v>
       </c>
       <c r="C110">
-        <v>0.78107614169593798</v>
+        <v>1.1510761416959381</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
@@ -2056,7 +2056,7 @@
         <v>46</v>
       </c>
       <c r="C151">
-        <v>0.81814047403511503</v>
+        <v>1.018140474035115</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
@@ -2067,7 +2067,7 @@
         <v>47</v>
       </c>
       <c r="C152">
-        <v>0.873800082666366</v>
+        <v>1.0738000826663661</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
@@ -2078,7 +2078,7 @@
         <v>48</v>
       </c>
       <c r="C153">
-        <v>0.66989313115413796</v>
+        <v>0.90989313115413795</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
@@ -2089,7 +2089,7 @@
         <v>49</v>
       </c>
       <c r="C154">
-        <v>0.81171442150274997</v>
+        <v>1.02171442150275</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
@@ -2100,7 +2100,7 @@
         <v>50</v>
       </c>
       <c r="C155">
-        <v>0.87508002880511804</v>
+        <v>0.99508002880511803</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
@@ -2111,7 +2111,7 @@
         <v>51</v>
       </c>
       <c r="C156">
-        <v>0.91035042953821699</v>
+        <v>1.0603504295382169</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
@@ -2122,7 +2122,7 @@
         <v>52</v>
       </c>
       <c r="C157">
-        <v>0.92844249119310496</v>
+        <v>1.128442491193105</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
@@ -2133,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="C158">
-        <v>0.99036181668846102</v>
+        <v>1.110361816688461</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
@@ -2144,7 +2144,7 @@
         <v>2</v>
       </c>
       <c r="C159">
-        <v>0.92882848516237304</v>
+        <v>0.94882848516237295</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
@@ -2155,7 +2155,7 @@
         <v>3</v>
       </c>
       <c r="C160">
-        <v>0.94125324190827597</v>
+        <v>1.0912532419082759</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
@@ -2166,7 +2166,7 @@
         <v>4</v>
       </c>
       <c r="C161">
-        <v>0.88483474737087398</v>
+        <v>1.1048347473708739</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
@@ -2177,7 +2177,7 @@
         <v>5</v>
       </c>
       <c r="C162">
-        <v>0.84325586684655296</v>
+        <v>1.213255866846553</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
@@ -2628,7 +2628,7 @@
         <v>46</v>
       </c>
       <c r="C203">
-        <v>0.91769819162501998</v>
+        <v>1.1176981916250199</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
@@ -2639,7 +2639,7 @@
         <v>47</v>
       </c>
       <c r="C204">
-        <v>0.872730226602487</v>
+        <v>1.072730226602487</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
@@ -2650,7 +2650,7 @@
         <v>48</v>
       </c>
       <c r="C205">
-        <v>0.86971948136941801</v>
+        <v>1.109719481369418</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
@@ -2661,7 +2661,7 @@
         <v>49</v>
       </c>
       <c r="C206">
-        <v>0.81102344460091902</v>
+        <v>1.021023444600919</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
@@ -2672,7 +2672,7 @@
         <v>50</v>
       </c>
       <c r="C207">
-        <v>0.83052468996611895</v>
+        <v>0.95052468996611905</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
@@ -2683,7 +2683,7 @@
         <v>51</v>
       </c>
       <c r="C208">
-        <v>0.84876002649983096</v>
+        <v>0.99876002649983098</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
@@ -2694,7 +2694,7 @@
         <v>52</v>
       </c>
       <c r="C209">
-        <v>0.96298383049995395</v>
+        <v>1.162983830499954</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
@@ -2705,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="C210">
-        <v>0.84747584105817297</v>
+        <v>0.96747584105817297</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
@@ -2716,7 +2716,7 @@
         <v>2</v>
       </c>
       <c r="C211">
-        <v>0.75996867853745498</v>
+        <v>0.77996867853745488</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
@@ -2727,7 +2727,7 @@
         <v>3</v>
       </c>
       <c r="C212">
-        <v>0.81391035676620505</v>
+        <v>0.96391035676620507</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
@@ -2738,7 +2738,7 @@
         <v>4</v>
       </c>
       <c r="C213">
-        <v>0.77181397979638</v>
+        <v>0.99181397979637997</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
@@ -2749,7 +2749,7 @@
         <v>5</v>
       </c>
       <c r="C214">
-        <v>0.80211581408778898</v>
+        <v>1.172115814087789</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
@@ -3200,7 +3200,7 @@
         <v>46</v>
       </c>
       <c r="C255">
-        <v>0.829436717451844</v>
+        <v>1.029436717451844</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
@@ -3211,7 +3211,7 @@
         <v>47</v>
       </c>
       <c r="C256">
-        <v>0.78794353508457005</v>
+        <v>0.98794353508457</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
@@ -3222,7 +3222,7 @@
         <v>48</v>
       </c>
       <c r="C257">
-        <v>0.78222564121472404</v>
+        <v>1.0222256412147239</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
@@ -3233,7 +3233,7 @@
         <v>49</v>
       </c>
       <c r="C258">
-        <v>0.72828250298935704</v>
+        <v>0.93828250298935711</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
@@ -3244,7 +3244,7 @@
         <v>50</v>
       </c>
       <c r="C259">
-        <v>0.72998205390760396</v>
+        <v>0.84998205390760395</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.35">
@@ -3255,7 +3255,7 @@
         <v>51</v>
       </c>
       <c r="C260">
-        <v>0.75229142480938105</v>
+        <v>0.90229142480938107</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
@@ -3266,7 +3266,7 @@
         <v>52</v>
       </c>
       <c r="C261">
-        <v>0.87833710446318303</v>
+        <v>1.0783371044631831</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.35">
@@ -3277,7 +3277,7 @@
         <v>1</v>
       </c>
       <c r="C262">
-        <v>1.2007443499400801</v>
+        <v>1.3207443499400799</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
@@ -3288,7 +3288,7 @@
         <v>2</v>
       </c>
       <c r="C263">
-        <v>1.0143894560151101</v>
+        <v>1.0343894560151101</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.35">
@@ -3299,7 +3299,7 @@
         <v>3</v>
       </c>
       <c r="C264">
-        <v>1.10351670449836</v>
+        <v>1.2535167044983599</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
@@ -3310,7 +3310,7 @@
         <v>4</v>
       </c>
       <c r="C265">
-        <v>1.01411246336039</v>
+        <v>1.2341124633603899</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
@@ -3321,7 +3321,7 @@
         <v>5</v>
       </c>
       <c r="C266">
-        <v>0.82012336309919598</v>
+        <v>1.1901233630991961</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
@@ -3772,7 +3772,7 @@
         <v>46</v>
       </c>
       <c r="C307">
-        <v>0.89095936115261798</v>
+        <v>1.090959361152618</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.35">
@@ -3783,7 +3783,7 @@
         <v>47</v>
       </c>
       <c r="C308">
-        <v>0.84036890343639203</v>
+        <v>1.0403689034363921</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.35">
@@ -3794,7 +3794,7 @@
         <v>48</v>
       </c>
       <c r="C309">
-        <v>0.86973368573055299</v>
+        <v>1.1097336857305529</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.35">
@@ -3805,7 +3805,7 @@
         <v>49</v>
       </c>
       <c r="C310">
-        <v>0.84387910051000803</v>
+        <v>1.0538791005100081</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.35">
@@ -3816,7 +3816,7 @@
         <v>50</v>
       </c>
       <c r="C311">
-        <v>0.84641403916408298</v>
+        <v>0.96641403916408297</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.35">
@@ -3827,7 +3827,7 @@
         <v>51</v>
       </c>
       <c r="C312">
-        <v>0.85398006722461695</v>
+        <v>1.0039800672246169</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.35">
@@ -3838,7 +3838,7 @@
         <v>52</v>
       </c>
       <c r="C313">
-        <v>1.0689116541406301</v>
+        <v>1.26891165414063</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.35">
@@ -3849,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="C314">
-        <v>0.75592092962976598</v>
+        <v>0.87592092962976598</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.35">
@@ -3860,7 +3860,7 @@
         <v>2</v>
       </c>
       <c r="C315">
-        <v>1.37027019475783</v>
+        <v>1.39027019475783</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.35">
@@ -3871,7 +3871,7 @@
         <v>3</v>
       </c>
       <c r="C316">
-        <v>1.1446803714282401</v>
+        <v>1.29468037142824</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.35">
@@ -3882,7 +3882,7 @@
         <v>4</v>
       </c>
       <c r="C317">
-        <v>1.44502535046963</v>
+        <v>1.66502535046963</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.35">
@@ -3893,7 +3893,7 @@
         <v>5</v>
       </c>
       <c r="C318">
-        <v>1.10152270124796</v>
+        <v>1.4715227012479599</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.35">
@@ -4344,7 +4344,7 @@
         <v>46</v>
       </c>
       <c r="C359">
-        <v>1.0615473705214999</v>
+        <v>1.2615473705214999</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.35">
@@ -4355,7 +4355,7 @@
         <v>47</v>
       </c>
       <c r="C360">
-        <v>0.98814613265728402</v>
+        <v>1.188146132657284</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.35">
@@ -4366,7 +4366,7 @@
         <v>48</v>
       </c>
       <c r="C361">
-        <v>1.0119014238281101</v>
+        <v>1.2519014238281101</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.35">
@@ -4377,7 +4377,7 @@
         <v>49</v>
       </c>
       <c r="C362">
-        <v>0.88603433746210802</v>
+        <v>1.096034337462108</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.35">
@@ -4388,7 +4388,7 @@
         <v>50</v>
       </c>
       <c r="C363">
-        <v>0.91060387620597905</v>
+        <v>1.030603876205979</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.35">
@@ -4399,7 +4399,7 @@
         <v>51</v>
       </c>
       <c r="C364">
-        <v>1.26417290989793</v>
+        <v>1.4141729098979299</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.35">
@@ -4410,7 +4410,7 @@
         <v>52</v>
       </c>
       <c r="C365">
-        <v>1.10125653730035</v>
+        <v>1.30125653730035</v>
       </c>
     </row>
   </sheetData>
